--- a/management/一卡通产品与解决方案工作项跟踪.xlsx
+++ b/management/一卡通产品与解决方案工作项跟踪.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8891767-A25B-470F-920F-57843135B507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76116A1E-E8AA-448E-A9FB-EC39AFF8D92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9.17-9.21" sheetId="1" r:id="rId1"/>
@@ -138,11 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好房、好车、好医生
-产险、银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周一明确与智慧生活内部同事的对接方式与计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +192,11 @@
   </si>
   <si>
     <t>PC产品UI规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好房、好车、好医生、汽车之家
+产险、银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,22 +572,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -637,7 +637,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -709,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -718,66 +718,66 @@
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -787,25 +787,25 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -815,7 +815,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -825,7 +825,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -835,7 +835,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -845,7 +845,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -855,7 +855,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -865,7 +865,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -875,7 +875,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -885,7 +885,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -895,7 +895,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -905,7 +905,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -915,7 +915,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -925,7 +925,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -935,7 +935,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -945,7 +945,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -955,7 +955,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>

--- a/management/一卡通产品与解决方案工作项跟踪.xlsx
+++ b/management/一卡通产品与解决方案工作项跟踪.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76116A1E-E8AA-448E-A9FB-EC39AFF8D92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB6725-E2D5-4AC9-9DF1-38E68E7D87A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9.17-9.21" sheetId="1" r:id="rId1"/>
+    <sheet name="9.25-9.30" sheetId="2" r:id="rId2"/>
+    <sheet name="10.8-10.12" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +199,193 @@
   <si>
     <t>好房、好车、好医生、汽车之家
 产险、银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成
+1、解决方案，27到岗
+2、产品经理，提交HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须还接不接？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宁已开通接待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宁已开通项目确认合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪晓兵、刘浩东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁项目接洽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁帮助产险投标以及明确的西宁巴士沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪晓兵、陈小虎、蓝勇辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏冬宇、安娅妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟项目进一步研发与计划协调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确产品后的下一步研发与项目资源协调与沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏冬宇、李明玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户预付费二维码乘车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主产品最小场景产品原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳通持续跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小产品原型评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小产品交互设计以及UI设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张博文、安娅妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通拜访调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认南通的合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见证宝业务落地方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见证宝对接业务落地方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落实具体的合作意向
+落实人脸识别支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪晓兵、蓝勇辉、刘浩东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他城市商机跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安、武汉、昆明、太原、东莞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘浩东、倪晓兵、陈小虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联无感支付对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确与银联的对接技术模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡剑锋、陈小虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品运营管理后台规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟项目进度跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +415,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -241,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -264,11 +466,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,6 +528,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -613,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -635,9 +899,11 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H2" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -655,9 +921,11 @@
         <v>12</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H3" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -677,9 +945,11 @@
         <v>15</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="H4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -699,9 +969,11 @@
         <v>27</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="H5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -721,7 +993,9 @@
         <v>29</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
@@ -743,9 +1017,11 @@
         <v>33</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="H7" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="78" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -765,7 +1041,9 @@
         <v>37</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
@@ -785,7 +1063,9 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
@@ -803,7 +1083,9 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -970,4 +1252,604 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324D9955-C400-489F-913D-1A940E6D32B4}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection sqref="A1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3ECB310-21DF-4FAC-ADE2-55D11874A0A3}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D11:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/management/一卡通产品与解决方案工作项跟踪.xlsx
+++ b/management/一卡通产品与解决方案工作项跟踪.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB6725-E2D5-4AC9-9DF1-38E68E7D87A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C425E7-B925-413F-827E-E46638F9074A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9.17-9.21" sheetId="1" r:id="rId1"/>
     <sheet name="9.25-9.30" sheetId="2" r:id="rId2"/>
     <sheet name="10.8-10.12" sheetId="3" r:id="rId3"/>
+    <sheet name="10.15-10.19" sheetId="4" r:id="rId4"/>
+    <sheet name="10.22-10.26" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="123">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +388,136 @@
   </si>
   <si>
     <t>常熟项目进度跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续</t>
+  </si>
+  <si>
+    <t>持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西一卡通合作方案确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包运营管理后台确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟项目持续跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥地铁项目方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡相关知识培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通通卡方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡剑锋、郑鹤翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落实具体的合作意向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西一卡通合作技术交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宁市民卡接洽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明地铁项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西一卡通合作商务合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥地铁项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟项目入场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小虎</t>
+  </si>
+  <si>
+    <t>陈小虎、叶浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通卡项目方案模板梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁项目方案模板梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡剑锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡剑峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁二维码改造落地方案（通用版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品后续迭代计划与研发进度跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪晓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨伟、夏冬宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌项目方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,6 +677,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1524,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3ECB310-21DF-4FAC-ADE2-55D11874A0A3}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1720,9 @@
         <v>44</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -1607,7 +1744,9 @@
         <v>44</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -1625,7 +1764,9 @@
         <v>66</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -1643,7 +1784,9 @@
         <v>15</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -1663,7 +1806,9 @@
         <v>15</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1683,7 +1828,9 @@
         <v>12</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1705,7 +1852,9 @@
         <v>73</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -1725,7 +1874,9 @@
         <v>27</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1745,7 +1896,9 @@
         <v>44</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -1755,7 +1908,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1765,7 +1918,9 @@
         <v>44</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -1775,7 +1930,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1783,7 +1938,9 @@
         <v>44</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -1793,7 +1950,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1801,7 +1958,9 @@
         <v>44</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1823,7 +1982,9 @@
         <v>44</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
@@ -1843,7 +2004,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1851,5 +2014,512 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3378C5E1-81D1-433A-AA83-0927CFA10F52}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E76306E-8B8D-437A-AAE9-140433A20A9E}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/management/一卡通产品与解决方案工作项跟踪.xlsx
+++ b/management/一卡通产品与解决方案工作项跟踪.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C425E7-B925-413F-827E-E46638F9074A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322CF07-B5F5-47A7-A76C-03F75C654AEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2228,7 +2228,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
